--- a/documents/Baltimore WGM/FHIR track planning sheet.xlsx
+++ b/documents/Baltimore WGM/FHIR track planning sheet.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="15315" windowHeight="8250"/>
+    <workbookView xWindow="360" yWindow="255" windowWidth="15315" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Sunday</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>Q6?</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -66,65 +63,63 @@
     <t>MnM: data types, narrative</t>
   </si>
   <si>
-    <t xml:space="preserve"> - PC (care resources)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - SD - document ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Devices - Device&amp; data registries ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - OO - Diagnostic data/reports ??</t>
-  </si>
-  <si>
     <t>PA: Patient Administration resources</t>
   </si>
   <si>
     <t>Vocab: binding methodology, value set resource</t>
   </si>
   <si>
-    <t>Templates
- - profiles, template registry, CDA templates</t>
-  </si>
-  <si>
-    <t>Tooling + Pubs (v3)
-- tooling, publication issues</t>
-  </si>
-  <si>
-    <t>ITS
- - XML / JSON / ATOM
-- REST (+soa)</t>
-  </si>
-  <si>
     <t>InM, ITS: Message resource</t>
   </si>
   <si>
-    <t>OO??</t>
+    <t>ITS + SOA: REST and related issues</t>
+  </si>
+  <si>
+    <t>ITS: XML/JSON/ATOM</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Structured Docs</t>
+  </si>
+  <si>
+    <t>CGIT &amp; Templates</t>
+  </si>
+  <si>
+    <t>FHIR SAIF arch program</t>
+  </si>
+  <si>
+    <t>MnM: extensions</t>
+  </si>
+  <si>
+    <t>TSC co-chairs presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?Devices: Device &amp; data registries (SAIF arch pgm) </t>
+  </si>
+  <si>
+    <t>?FHIR governance/management groups</t>
+  </si>
+  <si>
+    <t>?ARB</t>
+  </si>
+  <si>
+    <t>? Patient Care: care resources</t>
+  </si>
+  <si>
+    <t>?Tooling &amp; Pubs v3: FHIR tooling &amp; publication issues</t>
+  </si>
+  <si>
+    <t>?OO: Diagnostic data/reports</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,18 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,72 +456,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="36.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="D1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,164 +509,187 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -708,6 +700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -720,6 +713,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/documents/Baltimore WGM/FHIR track planning sheet.xlsx
+++ b/documents/Baltimore WGM/FHIR track planning sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="255" windowWidth="15315" windowHeight="8130"/>
+    <workbookView xWindow="360" yWindow="315" windowWidth="15315" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Sunday</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -78,40 +75,49 @@
     <t>ITS: XML/JSON/ATOM</t>
   </si>
   <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>Structured Docs</t>
-  </si>
-  <si>
     <t>CGIT &amp; Templates</t>
   </si>
   <si>
-    <t>FHIR SAIF arch program</t>
-  </si>
-  <si>
     <t>MnM: extensions</t>
   </si>
   <si>
     <t>TSC co-chairs presentation</t>
   </si>
   <si>
-    <t xml:space="preserve">?Devices: Device &amp; data registries (SAIF arch pgm) </t>
-  </si>
-  <si>
     <t>?FHIR governance/management groups</t>
   </si>
   <si>
-    <t>?ARB</t>
-  </si>
-  <si>
-    <t>? Patient Care: care resources</t>
-  </si>
-  <si>
-    <t>?Tooling &amp; Pubs v3: FHIR tooling &amp; publication issues</t>
-  </si>
-  <si>
-    <t>?OO: Diagnostic data/reports</t>
+    <t>OO: Diagnostic data/reports</t>
+  </si>
+  <si>
+    <t>Tooling &amp; Pubs v3: FHIR tooling &amp; publication issues</t>
+  </si>
+  <si>
+    <t>Patient Care &amp; Templates: care resources</t>
+  </si>
+  <si>
+    <t>Structured Docs: FHIR documents</t>
+  </si>
+  <si>
+    <t>SAIF arch program - Focus on FHIR</t>
+  </si>
+  <si>
+    <t>N/A (Plenary - FHIR demo?)</t>
+  </si>
+  <si>
+    <t>Tutorial: Intro to FHIR</t>
+  </si>
+  <si>
+    <t>Tutorial: Hands on FHIR development</t>
+  </si>
+  <si>
+    <t>ARB: FHIR architecture</t>
+  </si>
+  <si>
+    <t>Joint w/ MnM: week planning</t>
+  </si>
+  <si>
+    <t>Devices: Device &amp; data registries (use Devices room if big enough for 25+)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -477,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,20 +493,23 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -560,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -595,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -603,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -619,26 +630,26 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,18 +665,18 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Baltimore WGM/FHIR track planning sheet.xlsx
+++ b/documents/Baltimore WGM/FHIR track planning sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="315" windowWidth="15315" windowHeight="8070"/>
+    <workbookView xWindow="360" yWindow="312" windowWidth="15312" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Pharmacy: Pharmacy resources &amp; extensions</t>
   </si>
   <si>
-    <t>MnM: data types, narrative</t>
-  </si>
-  <si>
     <t>PA: Patient Administration resources</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>ITS + SOA: REST and related issues</t>
   </si>
   <si>
-    <t>ITS: XML/JSON/ATOM</t>
-  </si>
-  <si>
     <t>CGIT &amp; Templates</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>?FHIR governance/management groups</t>
   </si>
   <si>
-    <t>OO: Diagnostic data/reports</t>
-  </si>
-  <si>
     <t>Tooling &amp; Pubs v3: FHIR tooling &amp; publication issues</t>
   </si>
   <si>
@@ -118,6 +109,15 @@
   </si>
   <si>
     <t>Devices: Device &amp; data registries (use Devices room if big enough for 25+)</t>
+  </si>
+  <si>
+    <t>ITS: XML/JSON/ATOM; PA: Patient vs. Person</t>
+  </si>
+  <si>
+    <t>OO: Diagnostic data/reports; PA: Scheduling</t>
+  </si>
+  <si>
+    <t>MnM: data types, narrative; Decor discussion</t>
   </si>
 </sst>
 </file>
@@ -465,19 +465,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="36.5703125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,34 +485,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -520,42 +520,42 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -563,34 +563,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -606,34 +606,34 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -641,34 +641,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -679,28 +679,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -729,7 +729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
